--- a/scrum-plan.xlsx
+++ b/scrum-plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +19,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>Fronttest-econst</t>
+  </si>
+  <si>
+    <t>Sprint 1 - Módulo login</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Criar base CSS</t>
+  </si>
+  <si>
+    <t>Criar tela de login e protótipos das demais telas</t>
+  </si>
+  <si>
+    <t>Criar funcionalidade de login e sessão de usuário</t>
+  </si>
+  <si>
+    <t>Criar tela de produtos</t>
+  </si>
+  <si>
+    <t>Criar funcionalidade de pesquisa a massa de dados</t>
+  </si>
+  <si>
+    <t>Criar massa de dados JSON</t>
+  </si>
+  <si>
+    <t>Épico - Criar tela de login e protótipos das demais telas</t>
+  </si>
+  <si>
+    <t>Criar estrutura básica de arquivos</t>
+  </si>
+  <si>
+    <t>Criar estrutura SPA</t>
+  </si>
+  <si>
+    <t>Épico - Criar funcionalidade de login e sessão de usuário</t>
+  </si>
+  <si>
+    <t>Criar serviço de autenticação de usuário</t>
+  </si>
+  <si>
+    <t>Desenvolver as funcionalidades de login</t>
+  </si>
+  <si>
+    <t>Aplicar restrições nas telas do projeto</t>
+  </si>
+  <si>
+    <t>Épico - Análise e levantamento de requisitos</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Esforço estimado</t>
+  </si>
+  <si>
+    <t>Esforço necessário</t>
+  </si>
+  <si>
+    <t>Sprint 2 - Módulo produtos</t>
+  </si>
+  <si>
+    <t>Épico - Criar massa de dados JSON</t>
+  </si>
+  <si>
+    <t>Épico - Criar tela de produtos</t>
+  </si>
+  <si>
+    <t>Épico - Criar funcionalidade de pesquisa a massa de dados</t>
+  </si>
+  <si>
+    <t>Épico - Teste final e Sprint review</t>
+  </si>
+  <si>
+    <t>Modificação - Criar e aplicar loader no projeto</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +112,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,12 +186,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +664,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <f>SUM(B4,B9,B14,B16)</f>
+        <v>19</v>
+      </c>
+      <c r="C3" s="16">
+        <f>SUM(C4,C9,C14,C16)</f>
+        <v>22</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="15">
+        <f>SUM(F4,F9,F14,F16)</f>
+        <v>7</v>
+      </c>
+      <c r="G3" s="16">
+        <f>SUM(G4,G9,G14,G16)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17">
+        <f>SUM(B5:B7)</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="18">
+        <f>SUM(C5:C7)</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="21">
+        <f>SUM(B10:B12)</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="22">
+        <f>SUM(C10:C12)</f>
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
+        <f>SUM(G10:G12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="19">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>15</v>
+      </c>
+      <c r="T10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19">
+        <v>4</v>
+      </c>
+      <c r="C11" s="20">
+        <v>4</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="32">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>16</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="S12" s="1">
+        <v>17</v>
+      </c>
+      <c r="T12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="S13" s="1">
+        <v>18</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2</v>
+      </c>
+      <c r="C14" s="22">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4</v>
+      </c>
+      <c r="G14" s="22">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>19</v>
+      </c>
+      <c r="T14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="T15" s="1">
+        <f>SUM(T10,T11,T12,T13,T14)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="E18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>